--- a/biology/Botanique/Buplèvre_en_faux/Buplèvre_en_faux.xlsx
+++ b/biology/Botanique/Buplèvre_en_faux/Buplèvre_en_faux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bupl%C3%A8vre_en_faux</t>
+          <t>Buplèvre_en_faux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bupleurum falcatum
 Le Buplèvre en faux (Bupleurum falcatum) est une plante herbacée vivace de la famille des Apiaceae. Il est très utilisé en médecine Kampo.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bupl%C3%A8vre_en_faux</t>
+          <t>Buplèvre_en_faux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Organes reproducteurs
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juillet-octobre
 Inflorescence : ombelle d'ombellules
